--- a/problemSolving/problems.xlsx
+++ b/problemSolving/problems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\core_java\problemSolving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswaspa\my-files\git\core_java\problemSolving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F65BDC-BB9A-4F12-81AB-D18FCFD07C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277C1036-DED2-4326-8C9E-FB1E9CFD0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem-set1" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,6 +2670,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>174</v>
       </c>
@@ -2679,9 +2682,6 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
